--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T06:42:38+00:00</t>
+    <t>2023-10-18T13:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T13:50:25+00:00</t>
+    <t>2023-11-10T20:52:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-10T20:52:19+00:00</t>
+    <t>2023-11-13T15:27:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T15:27:41+00:00</t>
+    <t>2023-11-14T13:53:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-14T13:53:30+00:00</t>
+    <t>2023-11-15T13:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T13:05:48+00:00</t>
+    <t>2023-11-21T15:26:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-21T15:26:12+00:00</t>
+    <t>2023-11-22T13:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-22T13:10:14+00:00</t>
+    <t>2023-11-22T15:48:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-22T15:48:04+00:00</t>
+    <t>2023-11-29T20:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.5</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-29T20:30:49+00:00</t>
+    <t>2023-12-04T15:33:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T15:33:03+00:00</t>
+    <t>2023-12-21T20:18:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.1.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-21T20:18:51+00:00</t>
+    <t>2024-02-09T15:10:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T15:10:48+00:00</t>
+    <t>2024-02-09T20:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T20:00:26+00:00</t>
+    <t>2024-02-21T16:19:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-21T16:19:48+00:00</t>
+    <t>2024-02-29T18:01:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -189,13 +189,10 @@
     <t>Yagan</t>
   </si>
   <si>
+    <t>Chango</t>
+  </si>
+  <si>
     <t>10</t>
-  </si>
-  <si>
-    <t>Chango</t>
-  </si>
-  <si>
-    <t>96</t>
   </si>
   <si>
     <t>Otro (Especificar)</t>
@@ -644,10 +641,10 @@
         <v>39</v>
       </c>
       <c r="B11" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s" s="2">
         <v>58</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>59</v>
       </c>
       <c r="D11" s="2"/>
     </row>
@@ -656,10 +653,10 @@
         <v>39</v>
       </c>
       <c r="B12" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="D12" s="2"/>
     </row>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T18:01:33+00:00</t>
+    <t>2024-02-29T20:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T20:20:18+00:00</t>
+    <t>2024-03-01T15:50:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-01T15:50:04+00:00</t>
+    <t>2024-03-04T15:00:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -150,13 +150,13 @@
     <t>03</t>
   </si>
   <si>
-    <t>Rapa Nui o pascuense</t>
+    <t>Rapa Nui O Pascuense</t>
   </si>
   <si>
     <t>04</t>
   </si>
   <si>
-    <t>Lickanatay</t>
+    <t>Lickanantay</t>
   </si>
   <si>
     <t>05</t>
@@ -180,13 +180,13 @@
     <t>08</t>
   </si>
   <si>
-    <t>Kaweskar</t>
+    <t>Kawésqar</t>
   </si>
   <si>
     <t>09</t>
   </si>
   <si>
-    <t>Yagan</t>
+    <t>Yagán</t>
   </si>
   <si>
     <t>Chango</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T15:00:39+00:00</t>
+    <t>2024-03-05T20:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T20:46:11+00:00</t>
+    <t>2024-03-06T13:55:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T13:55:04+00:00</t>
+    <t>2024-03-06T14:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T14:38:01+00:00</t>
+    <t>2024-03-18T16:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T16:21:14+00:00</t>
+    <t>2024-03-18T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T17:14:02+00:00</t>
+    <t>2024-03-19T16:07:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T16:07:43+00:00</t>
+    <t>2024-03-19T17:49:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T17:49:48+00:00</t>
+    <t>2024-04-04T12:35:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T12:35:15+00:00</t>
+    <t>2024-04-29T22:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T22:09:51+00:00</t>
+    <t>2024-04-30T11:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T11:40:38+00:00</t>
+    <t>2024-05-30T19:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30T19:35:25+00:00</t>
+    <t>2024-05-31T20:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:01:16+00:00</t>
+    <t>2024-05-31T20:30:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:30:32+00:00</t>
+    <t>2024-05-31T20:52:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:52:22+00:00</t>
+    <t>2024-06-03T14:23:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:23:07+00:00</t>
+    <t>2024-06-03T14:39:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:39:49+00:00</t>
+    <t>2024-06-04T14:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T14:45:33+00:00</t>
+    <t>2024-06-14T16:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T16:20:30+00:00</t>
+    <t>2024-06-14T18:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T18:56:59+00:00</t>
+    <t>2024-06-18T19:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T19:34:09+00:00</t>
+    <t>2024-06-18T20:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T20:03:27+00:00</t>
+    <t>2024-06-19T19:58:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T19:58:24+00:00</t>
+    <t>2024-06-19T20:13:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T20:13:08+00:00</t>
+    <t>2024-06-21T14:59:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T14:59:52+00:00</t>
+    <t>2024-06-21T15:26:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T15:26:57+00:00</t>
+    <t>2024-06-21T18:16:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T18:16:33+00:00</t>
+    <t>2024-06-21T21:35:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T21:35:59+00:00</t>
+    <t>2024-06-24T21:09:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T21:09:26+00:00</t>
+    <t>2024-06-27T13:53:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
+++ b/refs/heads/master/CodeSystem-PueblosOriginariosCS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T13:53:42+00:00</t>
+    <t>2024-06-28T19:11:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
